--- a/biology/Neurosciences/Cogniticien/Cogniticien.xlsx
+++ b/biology/Neurosciences/Cogniticien/Cogniticien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon ONISEP, le cogniticien est spécialisé dans l'intelligence humaine et artificielle. Il travaille sur la cognition humaine et modélise et conçoit des machines intelligentes pouvant aider les utilisateurs dans leur travail ou leur vie quotidienne. Il s'agit d'un métier à la croisée de l'informatique, de l'automatique et des sciences humaines. 
 Dans le cadre de son travail, le cogniticien doit puiser dans les 6 disciplines utilisées dans les Sciences cognitives : neurosciences, neuropsychologie, intelligence artificielle, anthropologie, Sciences du langage, philosophie,  mais aussi  ergonomie, économie, télécommunications, robotique, etc.
@@ -514,15 +526,17 @@
           <t>Formations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Formation à dominante informatique :
 Ingénieurs cogniticiens à l'Ecole Nationale Supérieure de cognitique - Bordeaux.
 Les formations de Linguistique informatique.
 Les formations reliées à l'Apprentissage automatique.
 Formations à dominante de sciences cognitives :
-Université Grenoble-II - Master ICA[1].
-Université de Lorraine -  Master SCA[2].
+Université Grenoble-II - Master ICA.
+Université de Lorraine -  Master SCA.
 Université de Bordeaux - Master TECH</t>
         </is>
       </c>
